--- a/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_4_b_flies_lab_tar.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_4_b_flies_lab_tar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\taraba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B66CA3-585E-46D1-B293-4CC01809F7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC336F1F-EF14-45B2-8617-64BF1E6EA720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="270">
   <si>
     <t>type</t>
   </si>
@@ -507,9 +507,6 @@
     <t>IBI</t>
   </si>
   <si>
-    <t>JALINGO/K/LAMIDO</t>
-  </si>
-  <si>
     <t>KARIM LAMIDO</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>FILINGA</t>
   </si>
   <si>
-    <t>GANGWEREN</t>
-  </si>
-  <si>
     <t>JAURO JALLO</t>
   </si>
   <si>
@@ -651,9 +645,6 @@
     <t>LUMBU</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>FIYAYI</t>
   </si>
   <si>
@@ -663,9 +654,6 @@
     <t>DANDIKULU</t>
   </si>
   <si>
-    <t>TAR_ARD_N_001</t>
-  </si>
-  <si>
     <t>TAR_ARD_N_002</t>
   </si>
   <si>
@@ -711,9 +699,6 @@
     <t>TAR_GAL_N_016</t>
   </si>
   <si>
-    <t>TAR_GAL_N_017</t>
-  </si>
-  <si>
     <t>TAR_GAL_N_018</t>
   </si>
   <si>
@@ -732,12 +717,6 @@
     <t>TAR_IBI_N_023</t>
   </si>
   <si>
-    <t>TAR_JAL_N_024</t>
-  </si>
-  <si>
-    <t>TAR_JAL_N_025</t>
-  </si>
-  <si>
     <t>TAR_KAL_N_026</t>
   </si>
   <si>
@@ -750,9 +729,6 @@
     <t>TAR_KUR_N_029</t>
   </si>
   <si>
-    <t>TAR_LAU_N_030</t>
-  </si>
-  <si>
     <t>TAR_LAU_N_031</t>
   </si>
   <si>
@@ -771,15 +747,9 @@
     <t>TAR_TAK_N_036</t>
   </si>
   <si>
-    <t>TAR_TAK_N_037</t>
-  </si>
-  <si>
     <t>TAR_TAK_N_038</t>
   </si>
   <si>
-    <t>TAR_TAK_N_039</t>
-  </si>
-  <si>
     <t>TAR_WUK_N_040</t>
   </si>
   <si>
@@ -826,6 +796,57 @@
   </si>
   <si>
     <t>pools_less_100_details_tar</t>
+  </si>
+  <si>
+    <t>MAIHULA</t>
+  </si>
+  <si>
+    <t>GANGUMI</t>
+  </si>
+  <si>
+    <t>SENDIRDE</t>
+  </si>
+  <si>
+    <t>ANGWAN GALADIMA</t>
+  </si>
+  <si>
+    <t>BAMBUKA</t>
+  </si>
+  <si>
+    <t>BENTE SAMA</t>
+  </si>
+  <si>
+    <t>KABRI</t>
+  </si>
+  <si>
+    <t>MAYO-NDAGA</t>
+  </si>
+  <si>
+    <t>KWESATI</t>
+  </si>
+  <si>
+    <t>BANTAJE</t>
+  </si>
+  <si>
+    <t>TAR_GAL_N_001</t>
+  </si>
+  <si>
+    <t>TAR_GAA_N_017</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_024</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_025</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_030</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_037</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_039</t>
   </si>
 </sst>
 </file>
@@ -964,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1022,9 +1043,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1372,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1652,7 +1670,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>99</v>
@@ -1810,7 +1828,7 @@
         <v>79</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>100</v>
@@ -1968,7 +1986,7 @@
         <v>79</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>107</v>
@@ -2335,11 +2353,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD146"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2590,29 +2608,24 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="16" t="s">
         <v>150</v>
       </c>
       <c r="D28" t="s">
@@ -2620,13 +2633,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D29" t="s">
@@ -2634,13 +2647,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="16" t="s">
         <v>152</v>
       </c>
       <c r="D30" t="s">
@@ -2648,13 +2661,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="16" t="s">
         <v>153</v>
       </c>
       <c r="D31" t="s">
@@ -2662,13 +2675,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D32" t="s">
@@ -2676,13 +2689,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="16" t="s">
         <v>155</v>
       </c>
       <c r="D33" t="s">
@@ -2690,13 +2703,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="16" t="s">
         <v>156</v>
       </c>
       <c r="D34" t="s">
@@ -2704,13 +2717,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="16" t="s">
         <v>157</v>
       </c>
       <c r="D35" t="s">
@@ -2718,13 +2731,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D36" t="s">
@@ -2732,13 +2745,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="16" t="s">
         <v>159</v>
       </c>
       <c r="D37" t="s">
@@ -2746,13 +2759,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="16" t="s">
         <v>160</v>
       </c>
       <c r="D38" t="s">
@@ -2760,13 +2773,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="16" t="s">
         <v>161</v>
       </c>
       <c r="D39" t="s">
@@ -2774,13 +2787,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D40" t="s">
@@ -2788,145 +2801,140 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="16" t="s">
         <v>163</v>
       </c>
       <c r="D41" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" t="s">
-        <v>149</v>
-      </c>
-    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>165</v>
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>166</v>
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>151</v>
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="E46" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>167</v>
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="E47" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>168</v>
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="E48" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>169</v>
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>170</v>
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>171</v>
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="E51" t="s">
         <v>152</v>
@@ -2937,10 +2945,10 @@
         <v>138</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
         <v>152</v>
@@ -2951,13 +2959,13 @@
         <v>138</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,13 +2973,13 @@
         <v>138</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,10 +2987,10 @@
         <v>138</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
         <v>153</v>
@@ -2993,10 +3001,10 @@
         <v>138</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E56" t="s">
         <v>153</v>
@@ -3007,10 +3015,10 @@
         <v>138</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57" t="s">
         <v>153</v>
@@ -3021,10 +3029,10 @@
         <v>138</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
         <v>153</v>
@@ -3035,10 +3043,10 @@
         <v>138</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E59" t="s">
         <v>153</v>
@@ -3049,13 +3057,13 @@
         <v>138</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3063,10 +3071,10 @@
         <v>138</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
         <v>154</v>
@@ -3077,10 +3085,10 @@
         <v>138</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E62" t="s">
         <v>154</v>
@@ -3091,10 +3099,10 @@
         <v>138</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="E63" t="s">
         <v>154</v>
@@ -3105,10 +3113,10 @@
         <v>138</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="E64" t="s">
         <v>155</v>
@@ -3119,10 +3127,10 @@
         <v>138</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
         <v>155</v>
@@ -3133,10 +3141,10 @@
         <v>138</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
         <v>155</v>
@@ -3147,10 +3155,10 @@
         <v>138</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
         <v>155</v>
@@ -3161,10 +3169,10 @@
         <v>138</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
         <v>155</v>
@@ -3175,10 +3183,10 @@
         <v>138</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
         <v>155</v>
@@ -3189,10 +3197,10 @@
         <v>138</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="E70" t="s">
         <v>156</v>
@@ -3203,10 +3211,10 @@
         <v>138</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
         <v>156</v>
@@ -3217,13 +3225,13 @@
         <v>138</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,13 +3239,13 @@
         <v>138</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3245,13 +3253,13 @@
         <v>138</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3259,13 +3267,13 @@
         <v>138</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3273,13 +3281,13 @@
         <v>138</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3287,13 +3295,13 @@
         <v>138</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,13 +3309,13 @@
         <v>138</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3315,13 +3323,13 @@
         <v>138</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3329,13 +3337,13 @@
         <v>138</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3343,13 +3351,13 @@
         <v>138</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3357,13 +3365,13 @@
         <v>138</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3371,13 +3379,13 @@
         <v>138</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,13 +3393,13 @@
         <v>138</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,13 +3407,13 @@
         <v>138</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3413,13 +3421,13 @@
         <v>138</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,13 +3435,13 @@
         <v>138</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3441,10 +3449,10 @@
         <v>138</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E88" t="s">
         <v>161</v>
@@ -3455,13 +3463,13 @@
         <v>138</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="E89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3469,13 +3477,13 @@
         <v>138</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3483,13 +3491,13 @@
         <v>138</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3497,13 +3505,13 @@
         <v>138</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,27 +3519,27 @@
         <v>138</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F95" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,13 +3547,13 @@
         <v>144</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,13 +3561,13 @@
         <v>144</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,13 +3575,13 @@
         <v>144</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3581,13 +3589,13 @@
         <v>144</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,13 +3603,13 @@
         <v>144</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3609,13 +3617,13 @@
         <v>144</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,13 +3631,13 @@
         <v>144</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,13 +3645,13 @@
         <v>144</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,13 +3659,13 @@
         <v>144</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,13 +3673,13 @@
         <v>144</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,13 +3687,13 @@
         <v>144</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F106" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3693,13 +3701,13 @@
         <v>144</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F107" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,13 +3715,13 @@
         <v>144</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F108" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,13 +3729,13 @@
         <v>144</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F109" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,13 +3743,13 @@
         <v>144</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F110" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3749,13 +3757,13 @@
         <v>144</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,13 +3771,13 @@
         <v>144</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,13 +3785,13 @@
         <v>144</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,13 +3799,13 @@
         <v>144</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,13 +3813,13 @@
         <v>144</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,13 +3827,13 @@
         <v>144</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,13 +3841,13 @@
         <v>144</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,13 +3855,13 @@
         <v>144</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3861,13 +3869,13 @@
         <v>144</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="F119" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,13 +3883,13 @@
         <v>144</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="F120" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,13 +3897,13 @@
         <v>144</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,13 +3911,13 @@
         <v>144</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,13 +3925,13 @@
         <v>144</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,13 +3939,13 @@
         <v>144</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,13 +3953,13 @@
         <v>144</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="F125" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,13 +3967,13 @@
         <v>144</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F126" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3973,13 +3981,13 @@
         <v>144</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,13 +3995,13 @@
         <v>144</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F128" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4001,13 +4009,13 @@
         <v>144</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F129" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,13 +4023,13 @@
         <v>144</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,13 +4037,13 @@
         <v>144</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4043,13 +4051,13 @@
         <v>144</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="F132" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,13 +4065,13 @@
         <v>144</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F133" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,13 +4079,13 @@
         <v>144</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F134" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,13 +4093,13 @@
         <v>144</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,13 +4107,13 @@
         <v>144</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F136" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,10 +4121,10 @@
         <v>144</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F137" t="s">
         <v>204</v>
@@ -4127,13 +4135,13 @@
         <v>144</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,13 +4149,13 @@
         <v>144</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,13 +4163,13 @@
         <v>144</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F140" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,13 +4177,13 @@
         <v>144</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F141" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4183,13 +4191,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F142" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,13 +4205,13 @@
         <v>144</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F143" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,13 +4219,13 @@
         <v>144</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F144" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,13 +4233,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F145" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,13 +4247,27 @@
         <v>144</v>
       </c>
       <c r="B146" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F146" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F147" t="s">
         <v>259</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="F146" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_4_b_flies_lab_tar.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_4_b_flies_lab_tar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\taraba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC336F1F-EF14-45B2-8617-64BF1E6EA720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A718BCE0-07AB-46D4-A707-B5EFB97F9344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -139,15 +139,6 @@
     <t>select_pool_months</t>
   </si>
   <si>
-    <t>pools_positive</t>
-  </si>
-  <si>
-    <t>pools_negative</t>
-  </si>
-  <si>
-    <t>pools_less_100</t>
-  </si>
-  <si>
     <t>pools_count</t>
   </si>
   <si>
@@ -280,42 +271,12 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>${pools_positive}</t>
-  </si>
-  <si>
-    <t>pools_positive_name</t>
-  </si>
-  <si>
-    <t>pools_positive_result</t>
-  </si>
-  <si>
-    <t>pools_positive_size</t>
-  </si>
-  <si>
-    <t>pools_positive_test_type</t>
-  </si>
-  <si>
     <t>PCR</t>
   </si>
   <si>
     <t>end repeat</t>
   </si>
   <si>
-    <t>pools_negative_name</t>
-  </si>
-  <si>
-    <t>pools_negative_result</t>
-  </si>
-  <si>
-    <t>pools_negative_size</t>
-  </si>
-  <si>
-    <t>pools_negative_test_type</t>
-  </si>
-  <si>
-    <t>${pools_negative}</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -349,24 +310,12 @@
     <t>Size</t>
   </si>
   <si>
-    <t>${pools_positive} &gt; 0</t>
-  </si>
-  <si>
-    <t>${pools_negative} &gt; 0</t>
-  </si>
-  <si>
     <t>select_multiple month</t>
   </si>
   <si>
     <t>Pools less than 100</t>
   </si>
   <si>
-    <t>${pools_less_100} &gt; 0</t>
-  </si>
-  <si>
-    <t>${pools_less_100}</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -376,9 +325,6 @@
     <t>concat(${select_pool_months}, " ", "pos pool", " ", (position(..) + 1))</t>
   </si>
   <si>
-    <t>pools_less_100_name</t>
-  </si>
-  <si>
     <t>concat(${select_pool_months}, " ", "less than 100 pool", " ", (position(..) + 1))</t>
   </si>
   <si>
@@ -413,12 +359,6 @@
   </si>
   <si>
     <t>positive_count</t>
-  </si>
-  <si>
-    <t>sum(${pool_result_negative}) + ${pools_negative}</t>
-  </si>
-  <si>
-    <t>sum(${pool_result_positive}) + ${pools_positive}</t>
   </si>
   <si>
     <t>Months of Fly Collection: **${select_pool_months}**
@@ -435,18 +375,6 @@
     <t>select_one type_test</t>
   </si>
   <si>
-    <t>pools_less_100_test_type</t>
-  </si>
-  <si>
-    <t>Test type for pool **${pools_positive_name}**</t>
-  </si>
-  <si>
-    <t>Test type for pool **${pools_negative_name}**</t>
-  </si>
-  <si>
-    <t>Test type for pool **${pools_less_100_name}**</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -480,12 +408,6 @@
     <t>community = ${lbl_village_community}</t>
   </si>
   <si>
-    <t>ng_oncho_2410_4_b_flies_lab_tar</t>
-  </si>
-  <si>
-    <t>(Taraba) 4. Blackfly Lab App</t>
-  </si>
-  <si>
     <t>TARABA</t>
   </si>
   <si>
@@ -789,15 +711,6 @@
     <t>TAR_SAR_M_052</t>
   </si>
   <si>
-    <t>pools_positive_details_tar</t>
-  </si>
-  <si>
-    <t>pools_negative_details_tar</t>
-  </si>
-  <si>
-    <t>pools_less_100_details_tar</t>
-  </si>
-  <si>
     <t>MAIHULA</t>
   </si>
   <si>
@@ -847,6 +760,93 @@
   </si>
   <si>
     <t>TAR_USS_N_039</t>
+  </si>
+  <si>
+    <t>pools_pos</t>
+  </si>
+  <si>
+    <t>pools_pos_details_tar</t>
+  </si>
+  <si>
+    <t>${pools_pos} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_pos}</t>
+  </si>
+  <si>
+    <t>pools_pos_name</t>
+  </si>
+  <si>
+    <t>pools_pos_result</t>
+  </si>
+  <si>
+    <t>pools_pos_size</t>
+  </si>
+  <si>
+    <t>pools_pos_test_type</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_pos_name}**</t>
+  </si>
+  <si>
+    <t>sum(${pool_result_positive}) + ${pools_pos}</t>
+  </si>
+  <si>
+    <t>pools_neg</t>
+  </si>
+  <si>
+    <t>pools_neg_details_tar</t>
+  </si>
+  <si>
+    <t>${pools_neg} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_neg}</t>
+  </si>
+  <si>
+    <t>pools_neg_name</t>
+  </si>
+  <si>
+    <t>pools_neg_result</t>
+  </si>
+  <si>
+    <t>pools_neg_size</t>
+  </si>
+  <si>
+    <t>pools_neg_test_type</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_neg_name}**</t>
+  </si>
+  <si>
+    <t>sum(${pool_result_negative}) + ${pools_neg}</t>
+  </si>
+  <si>
+    <t>pools_l_100</t>
+  </si>
+  <si>
+    <t>pools_l_100_details_tar</t>
+  </si>
+  <si>
+    <t>${pools_l_100} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_l_100}</t>
+  </si>
+  <si>
+    <t>pools_l_100_name</t>
+  </si>
+  <si>
+    <t>pools_l_100_test_type</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_l_100_name}**</t>
+  </si>
+  <si>
+    <t>ng_oncho_2410_4_b_flies_lab_tar_v2</t>
+  </si>
+  <si>
+    <t>(Taraba) 4. Blackfly Lab App V2</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1394,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1455,18 +1455,18 @@
         <v>22</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
@@ -1482,13 +1482,13 @@
     </row>
     <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
@@ -1501,19 +1501,19 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -1526,19 +1526,19 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
@@ -1598,13 +1598,13 @@
     </row>
     <row r="8" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
@@ -1617,19 +1617,19 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="10" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
@@ -1648,10 +1648,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
@@ -1667,20 +1667,20 @@
     </row>
     <row r="11" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1688,18 +1688,18 @@
       <c r="L11" s="21"/>
       <c r="M11" s="18"/>
       <c r="N11" s="21" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
@@ -1707,7 +1707,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -1729,23 +1729,23 @@
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -1806,10 +1806,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
@@ -1825,20 +1825,20 @@
     </row>
     <row r="18" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="18" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -1846,18 +1846,18 @@
       <c r="L18" s="21"/>
       <c r="M18" s="18"/>
       <c r="N18" s="21" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
@@ -1865,7 +1865,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
@@ -1887,23 +1887,23 @@
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -1964,10 +1964,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
@@ -1983,20 +1983,20 @@
     </row>
     <row r="25" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
       <c r="H25" s="18" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -2004,18 +2004,18 @@
       <c r="L25" s="21"/>
       <c r="M25" s="18"/>
       <c r="N25" s="21" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
@@ -2023,7 +2023,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
@@ -2056,10 +2056,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="7"/>
@@ -2075,13 +2075,13 @@
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="7"/>
@@ -2097,10 +2097,10 @@
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2109,7 +2109,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -2117,10 +2117,10 @@
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2129,7 +2129,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="33" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2167,7 +2167,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>126</v>
+        <v>260</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="34" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2187,7 +2187,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="35" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="7"/>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="36" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="7"/>
@@ -2242,10 +2242,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="7"/>
@@ -2254,20 +2254,20 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K37" s="7"/>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="18"/>
@@ -2283,21 +2283,21 @@
     </row>
     <row r="39" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2355,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD147"/>
     </sheetView>
@@ -2378,13 +2378,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,1852 +2422,1852 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C41" s="16" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>164</v>
-      </c>
       <c r="C62" s="16" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E76" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E86" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E93" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F102" t="s">
         <v>144</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F102" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F104" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="F105" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="F107" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="F109" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="F110" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="F112" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="F113" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F114" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="F115" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F116" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="F117" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="F118" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="F119" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F121" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F122" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="F123" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="F124" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F126" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F127" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F128" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F129" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F130" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="F131" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="F132" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F133" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="F134" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F135" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="F136" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="F137" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F138" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F141" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F143" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F144" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F145" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="F146" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F147" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
